--- a/HE-DIEU-HANH/slide/Minh họa điều phối.xlsx
+++ b/HE-DIEU-HANH/slide/Minh họa điều phối.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Giảng dạy/HDH/DTTX-HDH/Tài liệu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\erick-projects\DTTX-HKI-2024\HE-DIEU-HANH\slide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749912E-D198-E848-A407-546DA6743A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929CEA53-43C0-4E62-AF60-0E57AFAAF468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{5F242C0A-237D-CC43-B87E-AE25E84E98C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5F242C0A-237D-CC43-B87E-AE25E84E98C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Demo" sheetId="4" r:id="rId2"/>
     <sheet name="RR" sheetId="3" r:id="rId3"/>
+    <sheet name="SJF độc quyền" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="16">
   <si>
     <t>P1</t>
   </si>
@@ -76,12 +77,18 @@
   <si>
     <t>Trong trường hợp tranh chấp vào ReadyList, thì ưu tiên cho tiến trình cũ</t>
   </si>
+  <si>
+    <t>pi = thời_gian_còn_lại(Processi)</t>
+  </si>
+  <si>
+    <t>nếu tranh chấp vào ready list, Pi nhỏ hơn được ưu tiên</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +101,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF680000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -155,12 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -178,22 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -204,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,6 +219,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>382368</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487AE25C-01EF-C430-4984-AEC18D931930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3952875"/>
+          <a:ext cx="9802593" cy="2800741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,13 +573,13 @@
       <selection activeCell="E11" sqref="E11:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="5.33203125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="31" width="5.375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2">
         <v>0</v>
@@ -597,85 +645,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2">
         <v>21</v>
@@ -741,116 +789,116 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="H11" s="16" t="s">
+      <c r="F11" s="9"/>
+      <c r="H11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="L11" s="12" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="L11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
@@ -865,14 +913,14 @@
       <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
@@ -887,14 +935,14 @@
       <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2">
@@ -909,14 +957,14 @@
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2">
@@ -931,11 +979,11 @@
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -951,403 +999,403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83BAD3C-0848-6948-ADE7-76B6E7591020}">
   <dimension ref="B1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="5.33203125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="31" width="5.375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B1" s="10"/>
-      <c r="C1" s="10">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2">
         <v>0</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="2">
         <v>4</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="2">
         <v>5</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="2">
         <v>6</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="2">
         <v>7</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="2">
         <v>8</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="2">
         <v>9</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="2">
         <v>10</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="2">
         <v>11</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="2">
         <v>12</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="2">
         <v>13</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="2">
         <v>14</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="2">
         <v>15</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="2">
         <v>16</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="2">
         <v>17</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="2">
         <v>18</v>
       </c>
-      <c r="V1" s="10">
+      <c r="V1" s="2">
         <v>19</v>
       </c>
-      <c r="W1" s="10">
+      <c r="W1" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>21</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="2">
         <v>22</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="2">
         <v>23</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="2">
         <v>24</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="2">
         <v>25</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="2">
         <v>26</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="2">
         <v>27</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="2">
         <v>28</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="2">
         <v>29</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="2">
         <v>30</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="2">
         <v>31</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="2">
         <v>32</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="2">
         <v>33</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="2">
         <v>34</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="2">
         <v>35</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="2">
         <v>36</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="2">
         <v>37</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="2">
         <v>38</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="2">
         <v>39</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="2">
         <v>40</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="16" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="L11" s="11" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="L11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="P12" s="10" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="P12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="P13" s="10" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="P13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="P14" s="10" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="P14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="2">
         <v>11</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="P15" s="10" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="P15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1366,432 +1414,432 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="30" width="5.33203125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="30" width="5.375" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="2">
         <v>7</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="2">
         <v>9</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="2">
         <v>10</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="2">
         <v>11</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="2">
         <v>12</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="2">
         <v>13</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="2">
         <v>14</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="2">
         <v>15</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="2">
         <v>16</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="2">
         <v>17</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="2">
         <v>18</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="2">
         <v>19</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <v>21</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="2">
         <v>22</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="2">
         <v>23</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="2">
         <v>24</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="2">
         <v>25</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="2">
         <v>26</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="2">
         <v>27</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="2">
         <v>28</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="2">
         <v>29</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="2">
         <v>30</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="2">
         <v>31</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="2">
         <v>32</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="2">
         <v>33</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="2">
         <v>34</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="2">
         <v>35</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="2">
         <v>36</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="2">
         <v>37</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="2">
         <v>38</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="2">
         <v>39</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="2">
         <v>40</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <v>6</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1802,4 +1850,432 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE99892-F0B8-40D4-88E3-A8039FA450D5}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="31" width="5.375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>11</v>
+      </c>
+      <c r="O4" s="2">
+        <v>12</v>
+      </c>
+      <c r="P4" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2">
+        <v>15</v>
+      </c>
+      <c r="S4" s="2">
+        <v>16</v>
+      </c>
+      <c r="T4" s="2">
+        <v>17</v>
+      </c>
+      <c r="U4" s="2">
+        <v>18</v>
+      </c>
+      <c r="V4" s="2">
+        <v>19</v>
+      </c>
+      <c r="W4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2">
+        <v>32</v>
+      </c>
+      <c r="O9" s="2">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>35</v>
+      </c>
+      <c r="R9" s="2">
+        <v>36</v>
+      </c>
+      <c r="S9" s="2">
+        <v>37</v>
+      </c>
+      <c r="T9" s="2">
+        <v>38</v>
+      </c>
+      <c r="U9" s="2">
+        <v>39</v>
+      </c>
+      <c r="V9" s="2">
+        <v>40</v>
+      </c>
+      <c r="W9" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="H14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="L14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:J14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>